--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>1.918096684638222</v>
+        <v>36.40223015612666</v>
       </c>
       <c r="R2">
-        <v>17.262870161744</v>
+        <v>327.62007140514</v>
       </c>
       <c r="S2">
-        <v>1.137772377823302E-05</v>
+        <v>0.000177735188564451</v>
       </c>
       <c r="T2">
-        <v>1.137772377823302E-05</v>
+        <v>0.000177735188564451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.8802494144835555</v>
+        <v>1.463260354628889</v>
       </c>
       <c r="R3">
-        <v>7.922244730352</v>
+        <v>13.16934319166</v>
       </c>
       <c r="S3">
-        <v>5.221444139993522E-06</v>
+        <v>7.144420930624753E-06</v>
       </c>
       <c r="T3">
-        <v>5.221444139993521E-06</v>
+        <v>7.144420930624752E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>1207.892410546024</v>
+        <v>1862.56965375121</v>
       </c>
       <c r="R4">
-        <v>10871.03169491422</v>
+        <v>16763.12688376089</v>
       </c>
       <c r="S4">
-        <v>0.007164949666553866</v>
+        <v>0.009094062841866276</v>
       </c>
       <c r="T4">
-        <v>0.007164949666553865</v>
+        <v>0.009094062841866275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>32.25929689491689</v>
+        <v>26.49748770478499</v>
       </c>
       <c r="R5">
-        <v>290.333672054252</v>
+        <v>238.4773893430649</v>
       </c>
       <c r="S5">
-        <v>0.000191354988666592</v>
+        <v>0.0001293749298736727</v>
       </c>
       <c r="T5">
-        <v>0.000191354988666592</v>
+        <v>0.0001293749298736727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>1256.206311963956</v>
+        <v>2572.215559704845</v>
       </c>
       <c r="R6">
-        <v>11305.85680767561</v>
+        <v>23149.9400373436</v>
       </c>
       <c r="S6">
-        <v>0.007451537005651266</v>
+        <v>0.01255893431725943</v>
       </c>
       <c r="T6">
-        <v>0.007451537005651265</v>
+        <v>0.01255893431725943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>1629.288006318891</v>
+        <v>768.2621824311116</v>
       </c>
       <c r="R7">
-        <v>14663.59205687002</v>
+        <v>6914.359641880004</v>
       </c>
       <c r="S7">
-        <v>0.009664574804570267</v>
+        <v>0.003751067538326322</v>
       </c>
       <c r="T7">
-        <v>0.009664574804570265</v>
+        <v>0.003751067538326321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>51.33228940619955</v>
+        <v>586.0467602625746</v>
       </c>
       <c r="R8">
-        <v>461.9906046557959</v>
+        <v>5274.420842363172</v>
       </c>
       <c r="S8">
-        <v>0.0003044917466599001</v>
+        <v>0.002861394233158638</v>
       </c>
       <c r="T8">
-        <v>0.0003044917466599</v>
+        <v>0.002861394233158638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>23.55732015794089</v>
@@ -1013,10 +1013,10 @@
         <v>212.015881421468</v>
       </c>
       <c r="S9">
-        <v>0.0001397367942184864</v>
+        <v>0.0001150194568406155</v>
       </c>
       <c r="T9">
-        <v>0.0001397367942184863</v>
+        <v>0.0001150194568406155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>32325.73377884507</v>
+        <v>29985.88016895357</v>
       </c>
       <c r="R10">
-        <v>290931.6040096056</v>
+        <v>269872.9215205822</v>
       </c>
       <c r="S10">
-        <v>0.1917490775152279</v>
+        <v>0.1464071306412254</v>
       </c>
       <c r="T10">
-        <v>0.1917490775152278</v>
+        <v>0.1464071306412254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>863.3264305770491</v>
+        <v>426.5883369750929</v>
       </c>
       <c r="R11">
-        <v>7769.937875193444</v>
+        <v>3839.295032775836</v>
       </c>
       <c r="S11">
-        <v>0.005121060755811807</v>
+        <v>0.002082832787619823</v>
       </c>
       <c r="T11">
-        <v>0.005121060755811807</v>
+        <v>0.002082832787619823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>33618.71509193027</v>
+        <v>41410.61108060437</v>
       </c>
       <c r="R12">
-        <v>302568.4358273724</v>
+        <v>372695.4997254393</v>
       </c>
       <c r="S12">
-        <v>0.1994187556646769</v>
+        <v>0.2021887872642225</v>
       </c>
       <c r="T12">
-        <v>0.1994187556646768</v>
+        <v>0.2021887872642225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>43603.16356116629</v>
+        <v>12368.40603212963</v>
       </c>
       <c r="R13">
-        <v>392428.4720504966</v>
+        <v>111315.6542891666</v>
       </c>
       <c r="S13">
-        <v>0.2586442877615615</v>
+        <v>0.06038918409487248</v>
       </c>
       <c r="T13">
-        <v>0.2586442877615615</v>
+        <v>0.06038918409487248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>11.05006773284711</v>
+        <v>466.5621303670786</v>
       </c>
       <c r="R14">
-        <v>99.450609595624</v>
+        <v>4199.059173303708</v>
       </c>
       <c r="S14">
-        <v>6.55465490358289E-05</v>
+        <v>0.002278006261214413</v>
       </c>
       <c r="T14">
-        <v>6.554654903582888E-05</v>
+        <v>0.002278006261214413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>5.071076828265778</v>
+        <v>18.75439678858356</v>
       </c>
       <c r="R15">
-        <v>45.639691454392</v>
+        <v>168.789571097252</v>
       </c>
       <c r="S15">
-        <v>3.008050213125128E-05</v>
+        <v>9.156901199006399E-05</v>
       </c>
       <c r="T15">
-        <v>3.008050213125127E-05</v>
+        <v>9.156901199006397E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>6958.613221858006</v>
+        <v>23872.28644739996</v>
       </c>
       <c r="R16">
-        <v>62627.51899672205</v>
+        <v>214850.5780265996</v>
       </c>
       <c r="S16">
-        <v>0.04127694904638951</v>
+        <v>0.1165572909955109</v>
       </c>
       <c r="T16">
-        <v>0.0412769490463895</v>
+        <v>0.1165572909955109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>185.8443417152825</v>
+        <v>339.6144758136269</v>
       </c>
       <c r="R17">
-        <v>1672.599075437542</v>
+        <v>3056.530282322643</v>
       </c>
       <c r="S17">
-        <v>0.001102387383659365</v>
+        <v>0.001658179804892889</v>
       </c>
       <c r="T17">
-        <v>0.001102387383659365</v>
+        <v>0.001658179804892889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>7236.947409796474</v>
+        <v>32967.71560841466</v>
       </c>
       <c r="R18">
-        <v>65132.52668816827</v>
+        <v>296709.4404757319</v>
       </c>
       <c r="S18">
-        <v>0.04292796566810897</v>
+        <v>0.160966048647835</v>
       </c>
       <c r="T18">
-        <v>0.04292796566810896</v>
+        <v>0.160966048647835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>9386.254076934039</v>
+        <v>9846.705517167144</v>
       </c>
       <c r="R19">
-        <v>84476.28669240636</v>
+        <v>88620.3496545043</v>
       </c>
       <c r="S19">
-        <v>0.05567717574143654</v>
+        <v>0.04807689128732601</v>
       </c>
       <c r="T19">
-        <v>0.05567717574143653</v>
+        <v>0.048076891287326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>5.452737233192</v>
+        <v>18.244783868736</v>
       </c>
       <c r="R20">
-        <v>49.074635098728</v>
+        <v>164.203054818624</v>
       </c>
       <c r="S20">
-        <v>3.234442693708459E-05</v>
+        <v>8.908080871198154E-05</v>
       </c>
       <c r="T20">
-        <v>3.234442693708459E-05</v>
+        <v>8.908080871198154E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>2.502360175736</v>
+        <v>0.7333855315839999</v>
       </c>
       <c r="R21">
-        <v>22.521241581624</v>
+        <v>6.600469784256</v>
       </c>
       <c r="S21">
-        <v>1.484344511994445E-05</v>
+        <v>3.58078104521253E-06</v>
       </c>
       <c r="T21">
-        <v>1.484344511994445E-05</v>
+        <v>3.58078104521253E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>3433.778898333589</v>
+        <v>933.5191999888478</v>
       </c>
       <c r="R22">
-        <v>30904.0100850023</v>
+        <v>8401.67279989963</v>
       </c>
       <c r="S22">
-        <v>0.02036841423774928</v>
+        <v>0.004557940827442087</v>
       </c>
       <c r="T22">
-        <v>0.02036841423774928</v>
+        <v>0.004557940827442087</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>91.706257929686</v>
+        <v>13.280530730256</v>
       </c>
       <c r="R23">
-        <v>825.356321367174</v>
+        <v>119.524776572304</v>
       </c>
       <c r="S23">
-        <v>0.0005439811662341511</v>
+        <v>6.484266550303006E-05</v>
       </c>
       <c r="T23">
-        <v>0.0005439811662341512</v>
+        <v>6.484266550303006E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>3571.124951456044</v>
+        <v>1289.19345736064</v>
       </c>
       <c r="R24">
-        <v>32140.1245631044</v>
+        <v>11602.74111624576</v>
       </c>
       <c r="S24">
-        <v>0.02118312053851772</v>
+        <v>0.006294533089244954</v>
       </c>
       <c r="T24">
-        <v>0.02118312053851773</v>
+        <v>0.006294533089244953</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>4631.716141735488</v>
+        <v>385.0527127833119</v>
       </c>
       <c r="R25">
-        <v>41685.44527561939</v>
+        <v>3465.474415049808</v>
       </c>
       <c r="S25">
-        <v>0.02747431206252732</v>
+        <v>0.001880033619376394</v>
       </c>
       <c r="T25">
-        <v>0.02747431206252733</v>
+        <v>0.001880033619376394</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>4.474094614370221</v>
+        <v>49.31167353843333</v>
       </c>
       <c r="R26">
-        <v>40.266851529332</v>
+        <v>443.8050618459</v>
       </c>
       <c r="S26">
-        <v>2.653933614904596E-05</v>
+        <v>0.0002407660068405727</v>
       </c>
       <c r="T26">
-        <v>2.653933614904596E-05</v>
+        <v>0.0002407660068405727</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>2.053243299039555</v>
+        <v>1.982181218011111</v>
       </c>
       <c r="R27">
-        <v>18.479189691356</v>
+        <v>17.8396309621</v>
       </c>
       <c r="S27">
-        <v>1.217938349671159E-05</v>
+        <v>9.678070575377195E-06</v>
       </c>
       <c r="T27">
-        <v>1.217938349671158E-05</v>
+        <v>9.678070575377195E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>2817.493493442922</v>
+        <v>2523.098895711869</v>
       </c>
       <c r="R28">
-        <v>25357.4414409863</v>
+        <v>22707.89006140682</v>
       </c>
       <c r="S28">
-        <v>0.01671274601124118</v>
+        <v>0.01231912045148783</v>
       </c>
       <c r="T28">
-        <v>0.01671274601124117</v>
+        <v>0.01231912045148783</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>75.24706531054788</v>
+        <v>35.89437948397499</v>
       </c>
       <c r="R29">
-        <v>677.2235877949311</v>
+        <v>323.0494153557749</v>
       </c>
       <c r="S29">
-        <v>0.0004463488890225328</v>
+        <v>0.0001752555895236688</v>
       </c>
       <c r="T29">
-        <v>0.0004463488890225328</v>
+        <v>0.0001752555895236688</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>2930.18904620853</v>
+        <v>3484.408878429555</v>
       </c>
       <c r="R30">
-        <v>26371.70141587677</v>
+        <v>31359.679905866</v>
       </c>
       <c r="S30">
-        <v>0.01738123101550164</v>
+        <v>0.01701275076793867</v>
       </c>
       <c r="T30">
-        <v>0.01738123101550164</v>
+        <v>0.01701275076793867</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>3800.428181076939</v>
+        <v>1040.713543359408</v>
       </c>
       <c r="R31">
-        <v>34203.85362969245</v>
+        <v>9366.421890234673</v>
       </c>
       <c r="S31">
-        <v>0.02254329639877441</v>
+        <v>0.005081321036574754</v>
       </c>
       <c r="T31">
-        <v>0.02254329639877441</v>
+        <v>0.005081321036574754</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>4.097491173816888</v>
+        <v>258.852683952712</v>
       </c>
       <c r="R32">
-        <v>36.877420564352</v>
+        <v>2329.674155574408</v>
       </c>
       <c r="S32">
-        <v>2.43054081333911E-05</v>
+        <v>0.001263857472342426</v>
       </c>
       <c r="T32">
-        <v>2.43054081333911E-05</v>
+        <v>0.001263857472342426</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>1.880413138446222</v>
+        <v>10.40510069006133</v>
       </c>
       <c r="R33">
-        <v>16.923718246016</v>
+        <v>93.64590621055198</v>
       </c>
       <c r="S33">
-        <v>1.115419334674295E-05</v>
+        <v>5.080327565779359E-05</v>
       </c>
       <c r="T33">
-        <v>1.115419334674295E-05</v>
+        <v>5.080327565779359E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>2580.333166086592</v>
+        <v>13244.5499040731</v>
       </c>
       <c r="R34">
-        <v>23222.99849477933</v>
+        <v>119200.9491366579</v>
       </c>
       <c r="S34">
-        <v>0.01530596359123788</v>
+        <v>0.0646669878344121</v>
       </c>
       <c r="T34">
-        <v>0.01530596359123788</v>
+        <v>0.0646669878344121</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>68.91320200857955</v>
+        <v>188.4210330238019</v>
       </c>
       <c r="R35">
-        <v>620.218818077216</v>
+        <v>1695.789297214217</v>
       </c>
       <c r="S35">
-        <v>0.0004087778178267787</v>
+        <v>0.0009199724217544324</v>
       </c>
       <c r="T35">
-        <v>0.0004087778178267787</v>
+        <v>0.0009199724217544324</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>2683.542658193073</v>
+        <v>18290.77225430555</v>
       </c>
       <c r="R36">
-        <v>24151.88392373766</v>
+        <v>164616.9502887499</v>
       </c>
       <c r="S36">
-        <v>0.01591817938926516</v>
+        <v>0.08930534864664823</v>
       </c>
       <c r="T36">
-        <v>0.01591817938926516</v>
+        <v>0.08930534864664823</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>3480.530089522859</v>
+        <v>5463.036936163952</v>
       </c>
       <c r="R37">
-        <v>31324.77080570573</v>
+        <v>49167.33242547558</v>
       </c>
       <c r="S37">
-        <v>0.02064573192664108</v>
+        <v>0.02667347291139088</v>
       </c>
       <c r="T37">
-        <v>0.02064573192664107</v>
+        <v>0.02667347291139088</v>
       </c>
     </row>
   </sheetData>
